--- a/Testergebnisse.xlsx
+++ b/Testergebnisse.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JordiWelp/Desktop/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0D2B6B-91CC-B74C-8031-50BC656E86A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A86807-DE81-1648-92C7-398A19DAEB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{580FD3ED-2E65-454C-832B-38152C46621B}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="9" r:id="rId1"/>
@@ -226,21 +226,6 @@
   </si>
   <si>
     <t>&gt;4,30h</t>
-  </si>
-  <si>
-    <t>V3G6S50</t>
-  </si>
-  <si>
-    <t>V3G7S50</t>
-  </si>
-  <si>
-    <t>V4G3S50</t>
-  </si>
-  <si>
-    <t>V4G4S50</t>
-  </si>
-  <si>
-    <t>V5G3S50</t>
   </si>
   <si>
     <t>Beispiel:</t>
@@ -460,6 +445,21 @@
   </si>
   <si>
     <t>Anzahl der Ziffern des längsten Koeffizienten</t>
+  </si>
+  <si>
+    <t>V3G0/6S50</t>
+  </si>
+  <si>
+    <t>V3G0/7S50</t>
+  </si>
+  <si>
+    <t>V4G0/3S50</t>
+  </si>
+  <si>
+    <t>V4G0/4S50</t>
+  </si>
+  <si>
+    <t>V5G0/3S50</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E876CD4B-5EE9-644E-AE23-E2A0D58D51C1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+    <sheetView zoomScale="95" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -2335,8 +2335,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A6:AN147"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y56" sqref="Y56"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2348,10 +2348,10 @@
   <sheetData>
     <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.2">
@@ -2362,7 +2362,7 @@
         <v>21</v>
       </c>
       <c r="AD7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.2">
@@ -2380,34 +2380,34 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P8" s="1"/>
       <c r="T8" s="1" t="s">
@@ -2420,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
@@ -2433,37 +2433,37 @@
         <v>8</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AG8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AI8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ8" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="AK8" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3414,7 +3414,7 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -3488,7 +3488,7 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -4510,7 +4510,7 @@
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -4590,7 +4590,7 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -5161,7 +5161,7 @@
         <v>21</v>
       </c>
       <c r="AD58" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.2">
@@ -5172,37 +5172,37 @@
         <v>1</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="L59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="M59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="N59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="O59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K59" s="1" t="s">
+      <c r="P59" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M59" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="Q59" s="1" t="s">
         <v>5</v>
@@ -5220,7 +5220,7 @@
         <v>8</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X59" s="1"/>
       <c r="Y59" s="1" t="s">
@@ -5233,32 +5233,32 @@
         <v>8</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AF59" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AG59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI59" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AH59" s="1" t="s">
+      <c r="AJ59" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AI59" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AJ59" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="AK59" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.2">
@@ -5585,7 +5585,7 @@
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -5825,7 +5825,7 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B68">
         <v>8</v>
@@ -5922,18 +5922,18 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A6:R66"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView topLeftCell="A24" zoomScale="75" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -5951,39 +5951,39 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="M8" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -6021,7 +6021,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -6059,7 +6059,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -6135,7 +6135,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -6363,7 +6363,7 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -6509,7 +6509,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -6544,7 +6544,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -6579,7 +6579,7 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -6614,7 +6614,7 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -6840,7 +6840,7 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -6918,7 +6918,7 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -6957,7 +6957,7 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -6996,7 +6996,7 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -7074,7 +7074,7 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -7113,7 +7113,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -7142,7 +7142,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -7171,7 +7171,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B50">
         <v>4</v>
@@ -7206,7 +7206,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B51">
         <v>4</v>
@@ -7221,7 +7221,7 @@
         <v>1901889448</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H51" s="2">
         <v>85046948672</v>
@@ -7239,7 +7239,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B52">
         <v>5</v>
@@ -7269,37 +7269,37 @@
         <v>1</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="M56" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="O56" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="P56" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="Q56" s="1" t="s">
         <v>5</v>
@@ -7440,7 +7440,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -7536,7 +7536,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -7556,8 +7556,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A5:CC66"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="67" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="BQ47" sqref="BQ47"/>
+    <sheetView topLeftCell="A21" zoomScale="67" zoomScaleNormal="116" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7632,21 +7632,21 @@
   <sheetData>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="F6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
@@ -7658,7 +7658,7 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AM6" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
@@ -7670,7 +7670,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
       <c r="AX6" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AY6" s="3"/>
       <c r="AZ6" s="3"/>
@@ -7682,7 +7682,7 @@
       <c r="BF6" s="3"/>
       <c r="BG6" s="3"/>
       <c r="BI6" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BJ6" s="3"/>
       <c r="BK6" s="3"/>
@@ -7695,7 +7695,7 @@
       <c r="BR6" s="3"/>
       <c r="BS6" s="3"/>
       <c r="BT6" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
@@ -7773,7 +7773,7 @@
         <v>15</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>20</v>
@@ -7934,7 +7934,7 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -8128,7 +8128,7 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -8516,7 +8516,7 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -8710,7 +8710,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -8904,7 +8904,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -9486,7 +9486,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -9680,7 +9680,7 @@
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -10071,7 +10071,7 @@
     </row>
     <row r="22" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -10265,7 +10265,7 @@
     </row>
     <row r="23" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -10459,7 +10459,7 @@
     </row>
     <row r="24" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -10653,7 +10653,7 @@
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -11041,7 +11041,7 @@
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -11235,7 +11235,7 @@
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -12041,7 +12041,7 @@
     </row>
     <row r="35" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -12265,7 +12265,7 @@
     </row>
     <row r="36" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>4</v>
@@ -12489,7 +12489,7 @@
     </row>
     <row r="37" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -12713,7 +12713,7 @@
     </row>
     <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -12910,7 +12910,7 @@
     </row>
     <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -13134,7 +13134,7 @@
     </row>
     <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -13331,7 +13331,7 @@
     </row>
     <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -13922,7 +13922,7 @@
     </row>
     <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -14086,7 +14086,7 @@
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="48" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B48">
         <v>4</v>
@@ -14444,7 +14444,7 @@
     </row>
     <row r="49" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B49">
         <v>4</v>
@@ -14611,7 +14611,7 @@
     </row>
     <row r="50" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B50">
         <v>5</v>
@@ -14728,13 +14728,13 @@
     </row>
     <row r="56" spans="1:78" x14ac:dyDescent="0.2">
       <c r="F56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
@@ -14746,7 +14746,7 @@
       <c r="AJ56" s="3"/>
       <c r="AK56" s="3"/>
       <c r="AM56" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
@@ -14758,7 +14758,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
       <c r="AX56" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AY56" s="3"/>
       <c r="AZ56" s="3"/>
@@ -14770,7 +14770,7 @@
       <c r="BF56" s="3"/>
       <c r="BG56" s="3"/>
       <c r="BI56" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BJ56" s="3"/>
       <c r="BK56" s="3"/>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="63" spans="1:78" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -16130,7 +16130,7 @@
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B66">
         <v>8</v>
@@ -16162,29 +16162,29 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="A8:CC67"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="Q70" sqref="Q70"/>
+    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="F10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
@@ -16196,7 +16196,7 @@
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AM10" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
@@ -16208,7 +16208,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
       <c r="AX10" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AY10" s="3"/>
       <c r="AZ10" s="3"/>
@@ -16220,7 +16220,7 @@
       <c r="BF10" s="3"/>
       <c r="BG10" s="3"/>
       <c r="BI10" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BJ10" s="3"/>
       <c r="BK10" s="3"/>
@@ -16233,7 +16233,7 @@
       <c r="BR10" s="3"/>
       <c r="BS10" s="3"/>
       <c r="BT10" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BV10" s="3"/>
       <c r="BW10" s="3"/>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -16665,7 +16665,7 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -16859,7 +16859,7 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -17053,7 +17053,7 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -17247,7 +17247,7 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -17441,7 +17441,7 @@
     </row>
     <row r="17" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -17635,7 +17635,7 @@
     </row>
     <row r="18" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -17829,7 +17829,7 @@
     </row>
     <row r="19" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -18023,7 +18023,7 @@
     </row>
     <row r="20" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -18217,7 +18217,7 @@
     </row>
     <row r="21" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -18411,7 +18411,7 @@
     </row>
     <row r="25" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="26" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="27" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="28" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -19154,7 +19154,7 @@
     </row>
     <row r="29" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -19318,7 +19318,7 @@
     </row>
     <row r="30" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -19482,7 +19482,7 @@
     </row>
     <row r="31" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -19646,7 +19646,7 @@
     </row>
     <row r="32" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -19810,7 +19810,7 @@
     </row>
     <row r="33" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -19974,7 +19974,7 @@
     </row>
     <row r="34" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -20138,7 +20138,7 @@
     </row>
     <row r="38" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B38">
         <v>4</v>
@@ -20362,7 +20362,7 @@
     </row>
     <row r="39" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B39">
         <v>4</v>
@@ -20586,7 +20586,7 @@
     </row>
     <row r="40" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -20780,7 +20780,7 @@
     </row>
     <row r="41" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -20974,7 +20974,7 @@
     </row>
     <row r="42" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -21141,7 +21141,7 @@
     </row>
     <row r="43" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B43">
         <v>4</v>
@@ -21335,7 +21335,7 @@
     </row>
     <row r="44" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="45" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -21663,7 +21663,7 @@
     </row>
     <row r="46" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B46">
         <v>4</v>
@@ -21827,7 +21827,7 @@
     </row>
     <row r="47" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>4</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="50" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -22125,7 +22125,7 @@
     </row>
     <row r="51" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -22259,7 +22259,7 @@
     </row>
     <row r="52" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="B52">
         <v>4</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="53" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B53">
         <v>4</v>
@@ -22495,7 +22495,7 @@
         <v>1901889448</v>
       </c>
       <c r="Z53" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AB53" s="2">
         <v>24156589440</v>
@@ -22561,7 +22561,7 @@
     </row>
     <row r="54" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B54">
         <v>5</v>
@@ -23188,7 +23188,7 @@
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -23682,84 +23682,84 @@
   <sheetData>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -24297,31 +24297,31 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -24364,7 +24364,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3">
         <v>57.869478800000003</v>
@@ -24405,7 +24405,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3">
         <v>1.8230630000000001E-2</v>
@@ -24444,7 +24444,7 @@
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B23" s="3">
         <v>7.8574600000000001E-3</v>
@@ -24483,7 +24483,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B24" s="3">
         <v>0.38695663000000002</v>
@@ -24522,7 +24522,7 @@
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B25" s="3">
         <v>5.7547299999999996E-3</v>
@@ -24559,7 +24559,7 @@
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B26" s="3">
         <v>7.7677299999999996E-3</v>
@@ -24606,17 +24606,17 @@
   <dimension ref="A5:G16"/>
   <sheetViews>
     <sheetView zoomScale="125" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -24624,16 +24624,16 @@
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>5.5973334999999999E-2</v>
@@ -24645,7 +24645,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>1.7068540999999999</v>
@@ -24657,7 +24657,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>6.4005652509999997</v>
@@ -24669,7 +24669,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>9.0600081489999997</v>
@@ -24680,7 +24680,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>17.922757601000001</v>
@@ -24691,7 +24691,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="B13">
         <v>103.046762079</v>
@@ -24702,7 +24702,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>137</v>
       </c>
       <c r="B14">
         <v>15038.915584738999</v>
@@ -24713,13 +24713,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -24783,14 +24783,14 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E6" s="3">
         <v>2.326711</v>
@@ -24831,14 +24831,14 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E7" s="13">
         <v>1430000000</v>
@@ -24901,51 +24901,51 @@
   <sheetData>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="Q7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="V7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -24978,10 +24978,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C9">
         <v>3.2820229999999998E-3</v>
@@ -25461,10 +25461,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C20">
         <v>306472</v>
@@ -25493,7 +25493,7 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
